--- a/ConfigurationFiles/03-Score_weight_DG.xlsx
+++ b/ConfigurationFiles/03-Score_weight_DG.xlsx
@@ -30,16 +30,16 @@
     <t>Group</t>
   </si>
   <si>
-    <t>SN1_[FA-H2O+H]+</t>
-  </si>
-  <si>
-    <t>SN2_[FA-H2O+H]+</t>
-  </si>
-  <si>
-    <t>[MG(SN1)-H2O+H]+</t>
-  </si>
-  <si>
-    <t>[MG(SN2)-H2O+H]+</t>
+    <t>FA1_[FA-H2O+H]+</t>
+  </si>
+  <si>
+    <t>FA2_[FA-H2O+H]+</t>
+  </si>
+  <si>
+    <t>[MG(FA1)-H2O+H]+</t>
+  </si>
+  <si>
+    <t>[MG(FA2)-H2O+H]+</t>
   </si>
 </sst>
 </file>
@@ -394,7 +394,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
